--- a/download_file/마음손거래내역_0921월테스트.xlsx
+++ b/download_file/마음손거래내역_0921월테스트.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD6EC4-1BD7-49D0-A5DA-E6AF8D1C3B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E620C-BEAE-4734-A467-FA4383C1690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36360" yWindow="-3375" windowWidth="25290" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="30건1" sheetId="3" r:id="rId1"/>
-    <sheet name="30건2" sheetId="4" r:id="rId2"/>
-    <sheet name="30건3" sheetId="5" r:id="rId3"/>
-    <sheet name="16건" sheetId="2" r:id="rId4"/>
+    <sheet name="16건" sheetId="2" r:id="rId1"/>
+    <sheet name="30건1" sheetId="3" r:id="rId2"/>
+    <sheet name="30건2" sheetId="4" r:id="rId3"/>
+    <sheet name="30건3" sheetId="5" r:id="rId4"/>
     <sheet name="마음손거래내역_20230804025611" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'16건'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16건'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">마음손거래내역_20230804025611!$A$1:$M$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1575,10 +1575,681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389D72D-098C-47BA-991B-256275409781}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2328580</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2251450</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2475460</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2101440</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1364000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>755980</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>12850</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>197800</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>105000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1497240</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>898510</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>112374</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1319740</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>78330</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>52510</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AE36C6-C85B-4DC0-BB47-37700088E3D7}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2815,7 +3486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873B6A2-79C8-426C-ACFF-81C53E6F320E}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -4031,7 +4702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DEE5B0-EFD1-4E30-9E76-51C422BC1192}">
   <dimension ref="A1:M31"/>
   <sheetViews>
@@ -5265,677 +5936,6 @@
         <v>66</v>
       </c>
       <c r="M31" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389D72D-098C-47BA-991B-256275409781}">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2328580</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2251450</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>2475460</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2101440</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1364000</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>755980</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>12850</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>197800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>105000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1497240</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>898510</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>112374</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1319740</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>78330</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>52510</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>

--- a/download_file/마음손거래내역_0921월테스트.xlsx
+++ b/download_file/마음손거래내역_0921월테스트.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ysk\Python\python_auto_work\download_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E620C-BEAE-4734-A467-FA4383C1690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2502A1-8A74-465E-8C20-5FA3900C0B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36360" yWindow="-3375" windowWidth="25290" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3945" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="16건" sheetId="2" r:id="rId1"/>
-    <sheet name="30건1" sheetId="3" r:id="rId2"/>
+    <sheet name="30건1" sheetId="3" r:id="rId1"/>
+    <sheet name="16건" sheetId="2" r:id="rId2"/>
     <sheet name="30건2" sheetId="4" r:id="rId3"/>
     <sheet name="30건3" sheetId="5" r:id="rId4"/>
     <sheet name="마음손거래내역_20230804025611" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'16건'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'16건'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">마음손거래내역_20230804025611!$A$1:$M$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1575,10 +1575,1251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AE36C6-C85B-4DC0-BB47-37700088E3D7}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5">
+        <v>30000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>37800</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>87700</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>177800</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>105000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2700</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>600000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>14000</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>464390</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>251840</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>54810</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44520</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1150000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1027300</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>81390</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>813990</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>6780</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>40580</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>13100</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>21840</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>7000</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>10070</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2980</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5650</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>40000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="5">
+        <v>237410</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45190</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="5">
+        <v>427800</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389D72D-098C-47BA-991B-256275409781}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2238,1247 +3479,6 @@
       <c r="M16" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AE36C6-C85B-4DC0-BB47-37700088E3D7}">
-  <dimension ref="A1:M31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="26.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5">
-        <v>30000</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>37800</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>87700</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>177800</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>105000</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2700</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>600000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>14000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>464390</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>251840</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>54810</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>44520</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1150000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1027300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>81390</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>813990</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>6780</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>40580</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>13100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>21840</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>10000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>7000</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>10070</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>2980</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>5650</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>40000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="5">
-        <v>237410</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4">
-        <v>45190</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="5">
-        <v>427800</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
